--- a/biology/Botanique/Barbe-de-bouc/Barbe-de-bouc.xlsx
+++ b/biology/Botanique/Barbe-de-bouc/Barbe-de-bouc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbe-de-bouc, Reine-des-bois
 La barbe-de-bouc ou reine-des-bois (Aruncus dioicus) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est grande plante vivace à rhizome pouvant atteindre un mètre de haut. Elle est aussi parfois appelée barbe-de-chèvre et plus rarement aronce dioïque.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Inflorescence d’Aruncus dioicus.
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans les forêts de montagnes jusqu'à 1 700 m d'altitude[réf. nécessaire], des lisières humides ou des zones marécageuses ombragées sur sol décalcifié.
 On la trouve très couramment en Autriche, dans les forêts de l'Est de la France (Alpes, Vosges, Jura), et dans les Pyrénées ; en revanche, elle est rare dans le Massif central.
@@ -579,22 +595,24 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 juin 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 juin 2014) :
 variété Aruncus dioicus var. acuminatus ;
 variété Aruncus dioicus var. astilboides ;
 variété Aruncus dioicus var. insularis ;
 variété Aruncus dioicus var. kamtschaticus ;
 variété Aruncus dioicus var. pubescens.
-Selon The Plant List            (9 juin 2014)[2] :
+Selon The Plant List            (9 juin 2014) :
 variété Aruncus dioicus var. acuminatus (Douglas ex Hook.) H.Hara ;
 variété Aruncus dioicus var. aethusifolius (H.L‚v.) H.Hara ;
 variété Aruncus dioicus var. astilboides (Maxim.) H.Hara ;
 variété Aruncus dioicus var. camschaticus (Maxim.) H.Hara ;
 variété Aruncus dioicus var. pubescens (Rydb.) Fernald ;
 variété Aruncus dioicus var. vulgaris (Maxim.) H.Hara.
-Selon Tropicos                                           (9 juin 2014)[3] (attention liste brute, pouvant contenir des synonymes) :
+Selon Tropicos                                           (9 juin 2014) (attention liste brute, pouvant contenir des synonymes) :
 variété Aruncus dioicus var. acuminatus (Rydb.) H. Hara ;
 variété Aruncus dioicus var. dioicus ;
 variété Aruncus dioicus var. kamtschaticus (Maxim.) H. Hara ;
